--- a/biology/Botanique/Forêt_marécageuse_de_Lokoli/Forêt_marécageuse_de_Lokoli.xlsx
+++ b/biology/Botanique/Forêt_marécageuse_de_Lokoli/Forêt_marécageuse_de_Lokoli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_mar%C3%A9cageuse_de_Lokoli</t>
+          <t>Forêt_marécageuse_de_Lokoli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt marécageuse de Lokoli (ou forêt inondée de Lokoli) est une aire protégée du Bénin située au sud du pays, sur le territoire de la commune de Zogbodomey dans le département du Zou. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_mar%C3%A9cageuse_de_Lokoli</t>
+          <t>Forêt_marécageuse_de_Lokoli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,51 +524,125 @@
           <t>Milieu physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couvrant une superficie d'environ 500 ha, cette forêt alluviale est arrosée par un petit cours d'eau, le Hlan, affluent de l'Ouémé[1].
-Végétation
-C'est un milieu constitué à la fois de forêt dense et de forêt dégradée. On y a observé les espèces suivantes : Mitragyna stipulosa, Anthocleista vogelii, Alstonia congensis, Nauclea diderrichii, Spondianthus preussii, Pterocarpus santalinoides, Milicia excelsa (iroko) , Ceiba pentandra (fromager), Raphia hookeri, Raphia sudanica, Ficus congensis, Ipomoea aquatica (liseron d'eau), Nymphaea lotus (lotus tigré), Azolla africana (fougère aquatique), Cyperus difformis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couvrant une superficie d'environ 500 ha, cette forêt alluviale est arrosée par un petit cours d'eau, le Hlan, affluent de l'Ouémé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forêt_marécageuse_de_Lokoli</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_mar%C3%A9cageuse_de_Lokoli</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Milieu physique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Végétation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un milieu constitué à la fois de forêt dense et de forêt dégradée. On y a observé les espèces suivantes : Mitragyna stipulosa, Anthocleista vogelii, Alstonia congensis, Nauclea diderrichii, Spondianthus preussii, Pterocarpus santalinoides, Milicia excelsa (iroko) , Ceiba pentandra (fromager), Raphia hookeri, Raphia sudanica, Ficus congensis, Ipomoea aquatica (liseron d'eau), Nymphaea lotus (lotus tigré), Azolla africana (fougère aquatique), Cyperus difformis.
 	Flore
 			Fougères accrochées aux racines échasses.
 			Lasimorpha senegalensis.
 			Arbre aquatique.
 			Fruit du calebassier (Crescentia cujete).
 			Nénuphars (Nymphaea lotus).
-Faune
-Six espèces de primates ont été recensées dans la forêt de Lokoli : la mone (Cercopithecus mona), le tantale (Cercopithecus tantalus), le colobe de Geoffroy (Colobus vellerosus), le colobe de van Beneden (Procolobus verus) le cercopithèque à ventre rouge (Cercopithecus erythrogaster), ainsi que le galago du Sénégal (Galago senegalensis). La plus abondante est la mone, avec 228 individus, soit une densité de 45,6 individus par km2[2]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_marécageuse_de_Lokoli</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_mar%C3%A9cageuse_de_Lokoli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Milieu physique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Six espèces de primates ont été recensées dans la forêt de Lokoli : la mone (Cercopithecus mona), le tantale (Cercopithecus tantalus), le colobe de Geoffroy (Colobus vellerosus), le colobe de van Beneden (Procolobus verus) le cercopithèque à ventre rouge (Cercopithecus erythrogaster), ainsi que le galago du Sénégal (Galago senegalensis). La plus abondante est la mone, avec 228 individus, soit une densité de 45,6 individus par km2
 .
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_mar%C3%A9cageuse_de_Lokoli</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_marécageuse_de_Lokoli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_mar%C3%A9cageuse_de_Lokoli</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Milieu humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est entourée par trois villages (Lokoli, Koussoukpa et Dèmè) dont la population totale est estimée à environ 1 500 personnes. Ce sont principalement des agriculteurs qui pratiquent aussi la transformation de produits forestiers non ligneux (extraction du vin de Raphia hookeri, fabrication de nattes), l’élevage et le petit commerce[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est entourée par trois villages (Lokoli, Koussoukpa et Dèmè) dont la population totale est estimée à environ 1 500 personnes. Ce sont principalement des agriculteurs qui pratiquent aussi la transformation de produits forestiers non ligneux (extraction du vin de Raphia hookeri, fabrication de nattes), l’élevage et le petit commerce.
 	Activités humaines
 			Extraction de vin de raphia.
 			Préparation d'alcool de raphia.
